--- a/biology/Médecine/SMAD7/SMAD7.xlsx
+++ b/biology/Médecine/SMAD7/SMAD7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le SMAD7 (ou Mothers against decapentaplegic homolog 7) est une protéine dont le gène est SMAD7 situé sur le chromosome 18 humain.
 </t>
@@ -511,9 +523,11 @@
           <t>Rôle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il inhibe le facteur de croissance transformant TGF-β1[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il inhibe le facteur de croissance transformant TGF-β1.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Cible thérapeutique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mongersen est un oligonucléotide se fixant sur l'ARN messager du SMAD7, facilitant sa dégradation. Donné par voie orale aux patients porteurs d'une maladie de Crohn, il en améliore les durées de rémission et les symptômes[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mongersen est un oligonucléotide se fixant sur l'ARN messager du SMAD7, facilitant sa dégradation. Donné par voie orale aux patients porteurs d'une maladie de Crohn, il en améliore les durées de rémission et les symptômes.
 </t>
         </is>
       </c>
